--- a/Code/Results/Cases/Case_1_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.000720114937002</v>
+        <v>1.025130049555415</v>
       </c>
       <c r="D2">
-        <v>1.045915236975661</v>
+        <v>1.052578524560983</v>
       </c>
       <c r="E2">
-        <v>1.007100971824047</v>
+        <v>1.025529291470578</v>
       </c>
       <c r="F2">
-        <v>1.040585312607016</v>
+        <v>1.055234760281801</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.054150182214415</v>
+        <v>1.04136903293982</v>
       </c>
       <c r="J2">
-        <v>1.022879308803643</v>
+        <v>1.030300792757304</v>
       </c>
       <c r="K2">
-        <v>1.056769919362952</v>
+        <v>1.055326868634535</v>
       </c>
       <c r="L2">
-        <v>1.018462257399978</v>
+        <v>1.028354595625322</v>
       </c>
       <c r="M2">
-        <v>1.051506767288256</v>
+        <v>1.057975777477524</v>
       </c>
       <c r="N2">
-        <v>1.011576315924945</v>
+        <v>1.014142848672106</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.004512429083078</v>
+        <v>1.025932597627786</v>
       </c>
       <c r="D3">
-        <v>1.049160953727676</v>
+        <v>1.05327366321171</v>
       </c>
       <c r="E3">
-        <v>1.01007466972128</v>
+        <v>1.026206640501578</v>
       </c>
       <c r="F3">
-        <v>1.044412878052078</v>
+        <v>1.056092013927693</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.05549540757002</v>
+        <v>1.04158885314406</v>
       </c>
       <c r="J3">
-        <v>1.024880832069144</v>
+        <v>1.030743301946246</v>
       </c>
       <c r="K3">
-        <v>1.059201200442694</v>
+        <v>1.055835183092671</v>
       </c>
       <c r="L3">
-        <v>1.020580245954745</v>
+        <v>1.028839619795867</v>
       </c>
       <c r="M3">
-        <v>1.054507356110063</v>
+        <v>1.058646320258604</v>
       </c>
       <c r="N3">
-        <v>1.012245949070901</v>
+        <v>1.014290135457412</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006921413682857</v>
+        <v>1.026452506313345</v>
       </c>
       <c r="D4">
-        <v>1.051222143882403</v>
+        <v>1.053723630134669</v>
       </c>
       <c r="E4">
-        <v>1.011969479723495</v>
+        <v>1.02664584849754</v>
       </c>
       <c r="F4">
-        <v>1.046846905502832</v>
+        <v>1.056647431705833</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05633903453705</v>
+        <v>1.04172991804204</v>
       </c>
       <c r="J4">
-        <v>1.026149710932994</v>
+        <v>1.03102958041562</v>
       </c>
       <c r="K4">
-        <v>1.060739301494514</v>
+        <v>1.056163584680788</v>
       </c>
       <c r="L4">
-        <v>1.021925558621568</v>
+        <v>1.029153701349418</v>
       </c>
       <c r="M4">
-        <v>1.056410987777772</v>
+        <v>1.0590802786068</v>
       </c>
       <c r="N4">
-        <v>1.012670387104506</v>
+        <v>1.014385393431295</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.00792373078024</v>
+        <v>1.026671219447121</v>
       </c>
       <c r="D5">
-        <v>1.052079570791498</v>
+        <v>1.053912833993863</v>
       </c>
       <c r="E5">
-        <v>1.012759228180125</v>
+        <v>1.026830709474855</v>
       </c>
       <c r="F5">
-        <v>1.047860249692044</v>
+        <v>1.056881099073213</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.056687394522662</v>
+        <v>1.04178893991622</v>
       </c>
       <c r="J5">
-        <v>1.026677024742814</v>
+        <v>1.031149917614937</v>
       </c>
       <c r="K5">
-        <v>1.061377709179967</v>
+        <v>1.056301520649422</v>
       </c>
       <c r="L5">
-        <v>1.022485260340685</v>
+        <v>1.029285796995087</v>
       </c>
       <c r="M5">
-        <v>1.057202423166722</v>
+        <v>1.059262730279219</v>
       </c>
       <c r="N5">
-        <v>1.012846751501475</v>
+        <v>1.01442542833231</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008091422478635</v>
+        <v>1.0267079507128</v>
       </c>
       <c r="D6">
-        <v>1.052223009875207</v>
+        <v>1.053944604313257</v>
       </c>
       <c r="E6">
-        <v>1.012891435645744</v>
+        <v>1.026861761173653</v>
       </c>
       <c r="F6">
-        <v>1.048029821158361</v>
+        <v>1.056920342747442</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.056745519630376</v>
+        <v>1.0417988333977</v>
       </c>
       <c r="J6">
-        <v>1.026765208505761</v>
+        <v>1.031170121888378</v>
       </c>
       <c r="K6">
-        <v>1.061484424663336</v>
+        <v>1.056324673386414</v>
       </c>
       <c r="L6">
-        <v>1.022578897091055</v>
+        <v>1.029307979666292</v>
       </c>
       <c r="M6">
-        <v>1.057334796222382</v>
+        <v>1.05929336558121</v>
       </c>
       <c r="N6">
-        <v>1.01287624397097</v>
+        <v>1.014432149678271</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006934847211328</v>
+        <v>1.026455428207069</v>
       </c>
       <c r="D7">
-        <v>1.051233636296997</v>
+        <v>1.053726158139913</v>
       </c>
       <c r="E7">
-        <v>1.011980058954667</v>
+        <v>1.026648317764903</v>
       </c>
       <c r="F7">
-        <v>1.046860484460163</v>
+        <v>1.05665055331621</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.056343713941108</v>
+        <v>1.041730707803626</v>
       </c>
       <c r="J7">
-        <v>1.026156780778105</v>
+        <v>1.031031188424749</v>
       </c>
       <c r="K7">
-        <v>1.060747863938229</v>
+        <v>1.056165428277329</v>
       </c>
       <c r="L7">
-        <v>1.021933060235122</v>
+        <v>1.029155466200476</v>
       </c>
       <c r="M7">
-        <v>1.056421597452371</v>
+        <v>1.059082716475925</v>
       </c>
       <c r="N7">
-        <v>1.012672751758396</v>
+        <v>1.01438592842554</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.002011243481777</v>
+        <v>1.025401147875437</v>
       </c>
       <c r="D8">
-        <v>1.047020366600336</v>
+        <v>1.05281341445761</v>
       </c>
       <c r="E8">
-        <v>1.008112152684195</v>
+        <v>1.025758013608556</v>
       </c>
       <c r="F8">
-        <v>1.041887870160067</v>
+        <v>1.055524323431224</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.054610435984038</v>
+        <v>1.041443564654985</v>
       </c>
       <c r="J8">
-        <v>1.023561264273924</v>
+        <v>1.030450351382793</v>
       </c>
       <c r="K8">
-        <v>1.057598968880752</v>
+        <v>1.055498760955622</v>
       </c>
       <c r="L8">
-        <v>1.019183349583839</v>
+        <v>1.02851846163445</v>
       </c>
       <c r="M8">
-        <v>1.052528832136141</v>
+        <v>1.058202374531494</v>
       </c>
       <c r="N8">
-        <v>1.011804487768177</v>
+        <v>1.014192634280827</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9929758989858456</v>
+        <v>1.023548088902783</v>
       </c>
       <c r="D9">
-        <v>1.039285989287665</v>
+        <v>1.051206397229244</v>
       </c>
       <c r="E9">
-        <v>1.001061969951442</v>
+        <v>1.024196293603702</v>
       </c>
       <c r="F9">
-        <v>1.032784964284758</v>
+        <v>1.0535453449062</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.051345030683835</v>
+        <v>1.040928633105286</v>
       </c>
       <c r="J9">
-        <v>1.018779158157052</v>
+        <v>1.029426477689088</v>
       </c>
       <c r="K9">
-        <v>1.051772286219675</v>
+        <v>1.054320154864144</v>
       </c>
       <c r="L9">
-        <v>1.014137840899609</v>
+        <v>1.027397863570214</v>
       </c>
       <c r="M9">
-        <v>1.045367615552168</v>
+        <v>1.056651730094896</v>
       </c>
       <c r="N9">
-        <v>1.010204209360744</v>
+        <v>1.013851689042731</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9866879525126024</v>
+        <v>1.022315986717273</v>
       </c>
       <c r="D10">
-        <v>1.033904636498361</v>
+        <v>1.050136076382554</v>
       </c>
       <c r="E10">
-        <v>0.9961903008706784</v>
+        <v>1.023160034829829</v>
       </c>
       <c r="F10">
-        <v>1.026467170242798</v>
+        <v>1.05222989827848</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049017706524667</v>
+        <v>1.040579381012677</v>
       </c>
       <c r="J10">
-        <v>1.015439872565447</v>
+        <v>1.028743721886721</v>
       </c>
       <c r="K10">
-        <v>1.04768757596616</v>
+        <v>1.053531917240485</v>
       </c>
       <c r="L10">
-        <v>1.010628682992968</v>
+        <v>1.02665214522112</v>
       </c>
       <c r="M10">
-        <v>1.0403744480271</v>
+        <v>1.055618494211709</v>
       </c>
       <c r="N10">
-        <v>1.009086514365039</v>
+        <v>1.013624192154155</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9838970529784684</v>
+        <v>1.021783269310765</v>
       </c>
       <c r="D11">
-        <v>1.031517103811654</v>
+        <v>1.049672882496396</v>
       </c>
       <c r="E11">
-        <v>0.9940368183961215</v>
+        <v>1.022712505476886</v>
       </c>
       <c r="F11">
-        <v>1.023667575714777</v>
+        <v>1.051661238930626</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047972267012533</v>
+        <v>1.040426747278912</v>
       </c>
       <c r="J11">
-        <v>1.013955423774837</v>
+        <v>1.02844805510218</v>
       </c>
       <c r="K11">
-        <v>1.045868162509299</v>
+        <v>1.053190027645584</v>
       </c>
       <c r="L11">
-        <v>1.009072074642004</v>
+        <v>1.026329577203249</v>
       </c>
       <c r="M11">
-        <v>1.038156545019372</v>
+        <v>1.055171238397338</v>
       </c>
       <c r="N11">
-        <v>1.008589624926946</v>
+        <v>1.013525641523467</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9828496509312299</v>
+        <v>1.02158551484574</v>
       </c>
       <c r="D12">
-        <v>1.030621289754602</v>
+        <v>1.049500872973274</v>
       </c>
       <c r="E12">
-        <v>0.9932300064078786</v>
+        <v>1.022546451914051</v>
       </c>
       <c r="F12">
-        <v>1.022617637493384</v>
+        <v>1.051450156433925</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.047578098154634</v>
+        <v>1.040369842049699</v>
       </c>
       <c r="J12">
-        <v>1.013398007315472</v>
+        <v>1.028338228149476</v>
       </c>
       <c r="K12">
-        <v>1.045184443464813</v>
+        <v>1.053062949384766</v>
       </c>
       <c r="L12">
-        <v>1.008488068411434</v>
+        <v>1.026209812454791</v>
       </c>
       <c r="M12">
-        <v>1.03732397948467</v>
+        <v>1.055005130772822</v>
       </c>
       <c r="N12">
-        <v>1.008403039128473</v>
+        <v>1.013489029415551</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9830748164020329</v>
+        <v>1.021627928370202</v>
       </c>
       <c r="D13">
-        <v>1.030813857173592</v>
+        <v>1.049537767699537</v>
       </c>
       <c r="E13">
-        <v>0.9934033881293334</v>
+        <v>1.022582062847735</v>
       </c>
       <c r="F13">
-        <v>1.022843314613781</v>
+        <v>1.051495427846809</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.04766291631959</v>
+        <v>1.0403820579156</v>
       </c>
       <c r="J13">
-        <v>1.013517851731519</v>
+        <v>1.028361786526436</v>
       </c>
       <c r="K13">
-        <v>1.045331466205194</v>
+        <v>1.053090211936098</v>
       </c>
       <c r="L13">
-        <v>1.008613606697766</v>
+        <v>1.026235500053306</v>
       </c>
       <c r="M13">
-        <v>1.037502968855267</v>
+        <v>1.055040760348881</v>
       </c>
       <c r="N13">
-        <v>1.00844315507723</v>
+        <v>1.01349688310213</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9838106964099118</v>
+        <v>1.021766920397219</v>
       </c>
       <c r="D14">
-        <v>1.031443240838574</v>
+        <v>1.049658663281684</v>
       </c>
       <c r="E14">
-        <v>0.993970269874113</v>
+        <v>1.022698775780119</v>
       </c>
       <c r="F14">
-        <v>1.023580995004754</v>
+        <v>1.051643787858698</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.04793980524679</v>
+        <v>1.040422047759258</v>
       </c>
       <c r="J14">
-        <v>1.013909471920803</v>
+        <v>1.028438976829129</v>
       </c>
       <c r="K14">
-        <v>1.045811809131961</v>
+        <v>1.053179525047037</v>
       </c>
       <c r="L14">
-        <v>1.009023920490746</v>
+        <v>1.026319676355908</v>
       </c>
       <c r="M14">
-        <v>1.03808790523156</v>
+        <v>1.055157507407984</v>
       </c>
       <c r="N14">
-        <v>1.008574243338539</v>
+        <v>1.013522615275376</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9842626582210562</v>
+        <v>1.021852573989493</v>
       </c>
       <c r="D15">
-        <v>1.031829824129046</v>
+        <v>1.049733156571602</v>
       </c>
       <c r="E15">
-        <v>0.9943186191815426</v>
+        <v>1.022770710213274</v>
       </c>
       <c r="F15">
-        <v>1.024034159808818</v>
+        <v>1.051735216355249</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.048109625332516</v>
+        <v>1.040446658985478</v>
       </c>
       <c r="J15">
-        <v>1.014149956130881</v>
+        <v>1.028486535941892</v>
       </c>
       <c r="K15">
-        <v>1.046106707445791</v>
+        <v>1.053234542552377</v>
       </c>
       <c r="L15">
-        <v>1.009275950856831</v>
+        <v>1.026371547002361</v>
       </c>
       <c r="M15">
-        <v>1.038447135213881</v>
+        <v>1.055229442237222</v>
       </c>
       <c r="N15">
-        <v>1.008654741208783</v>
+        <v>1.013538468932624</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9868716973369098</v>
+        <v>1.022351358223964</v>
       </c>
       <c r="D16">
-        <v>1.034061850269682</v>
+        <v>1.050166822722466</v>
       </c>
       <c r="E16">
-        <v>0.9963322678191715</v>
+        <v>1.0231897608467</v>
       </c>
       <c r="F16">
-        <v>1.026651586088512</v>
+        <v>1.052267658255958</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049086279366537</v>
+        <v>1.040589481276967</v>
       </c>
       <c r="J16">
-        <v>1.0155375589283</v>
+        <v>1.028763343809842</v>
       </c>
       <c r="K16">
-        <v>1.047807231752838</v>
+        <v>1.053554595289423</v>
       </c>
       <c r="L16">
-        <v>1.01073118807479</v>
+        <v>1.026673560128567</v>
       </c>
       <c r="M16">
-        <v>1.040520437280416</v>
+        <v>1.055648180250743</v>
       </c>
       <c r="N16">
-        <v>1.009119212527991</v>
+        <v>1.013630731767135</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9884896854688088</v>
+        <v>1.022664445336285</v>
       </c>
       <c r="D17">
-        <v>1.035446334382037</v>
+        <v>1.050438921578749</v>
       </c>
       <c r="E17">
-        <v>0.9975833853608073</v>
+        <v>1.023452936807043</v>
       </c>
       <c r="F17">
-        <v>1.028276007168868</v>
+        <v>1.052601897476375</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.049688691224465</v>
+        <v>1.040678694303853</v>
       </c>
       <c r="J17">
-        <v>1.016397488922794</v>
+        <v>1.028936971161658</v>
       </c>
       <c r="K17">
-        <v>1.048860150636575</v>
+        <v>1.053755202375723</v>
       </c>
       <c r="L17">
-        <v>1.01163391967833</v>
+        <v>1.026863095079635</v>
       </c>
       <c r="M17">
-        <v>1.041805777129093</v>
+        <v>1.055910882830404</v>
       </c>
       <c r="N17">
-        <v>1.009407050497751</v>
+        <v>1.013688594611117</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9894268873971319</v>
+        <v>1.022847139957333</v>
       </c>
       <c r="D18">
-        <v>1.036248370299977</v>
+        <v>1.050597657397856</v>
       </c>
       <c r="E18">
-        <v>0.9983089150879112</v>
+        <v>1.023606556382985</v>
       </c>
       <c r="F18">
-        <v>1.029217365219958</v>
+        <v>1.052796943899829</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.050036443985927</v>
+        <v>1.040730595106768</v>
       </c>
       <c r="J18">
-        <v>1.016895372189594</v>
+        <v>1.029038242177308</v>
       </c>
       <c r="K18">
-        <v>1.049469428345225</v>
+        <v>1.053872157272655</v>
       </c>
       <c r="L18">
-        <v>1.01215690284559</v>
+        <v>1.02697367964389</v>
       </c>
       <c r="M18">
-        <v>1.042550132143979</v>
+        <v>1.056064126398235</v>
       </c>
       <c r="N18">
-        <v>1.009573700402995</v>
+        <v>1.013722340852876</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9897453537461186</v>
+        <v>1.022909446977007</v>
       </c>
       <c r="D19">
-        <v>1.036520919751773</v>
+        <v>1.050651786418795</v>
       </c>
       <c r="E19">
-        <v>0.9985555940014506</v>
+        <v>1.023658955882064</v>
       </c>
       <c r="F19">
-        <v>1.029537315515189</v>
+        <v>1.052863464951643</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.050154409404631</v>
+        <v>1.040748268905149</v>
       </c>
       <c r="J19">
-        <v>1.017064517087519</v>
+        <v>1.029072772450901</v>
       </c>
       <c r="K19">
-        <v>1.049676358439963</v>
+        <v>1.053912026355383</v>
       </c>
       <c r="L19">
-        <v>1.012334628858864</v>
+        <v>1.027011391514838</v>
       </c>
       <c r="M19">
-        <v>1.04280303878673</v>
+        <v>1.056116380748032</v>
       </c>
       <c r="N19">
-        <v>1.009630315488951</v>
+        <v>1.013733846727457</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9883167709288417</v>
+        <v>1.02263084615786</v>
       </c>
       <c r="D20">
-        <v>1.0352983648181</v>
+        <v>1.050409725330246</v>
       </c>
       <c r="E20">
-        <v>0.9974495915128102</v>
+        <v>1.023424688764903</v>
       </c>
       <c r="F20">
-        <v>1.028102360252448</v>
+        <v>1.052566027412232</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.049624434258564</v>
+        <v>1.040669136614683</v>
       </c>
       <c r="J20">
-        <v>1.016305610900416</v>
+        <v>1.028918342879239</v>
       </c>
       <c r="K20">
-        <v>1.048747688386951</v>
+        <v>1.053733684896894</v>
       </c>
       <c r="L20">
-        <v>1.011537435516392</v>
+        <v>1.026842756449931</v>
       </c>
       <c r="M20">
-        <v>1.041668429407973</v>
+        <v>1.055882695910734</v>
       </c>
       <c r="N20">
-        <v>1.009376297129885</v>
+        <v>1.013682386904344</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9835942986251593</v>
+        <v>1.021725987369807</v>
       </c>
       <c r="D21">
-        <v>1.031258153859167</v>
+        <v>1.049623061390129</v>
       </c>
       <c r="E21">
-        <v>0.9938035306448053</v>
+        <v>1.022664401780862</v>
       </c>
       <c r="F21">
-        <v>1.023364047416874</v>
+        <v>1.051600095571869</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.04785843126435</v>
+        <v>1.040410277544425</v>
       </c>
       <c r="J21">
-        <v>1.013794317879265</v>
+        <v>1.028416246285949</v>
       </c>
       <c r="K21">
-        <v>1.045670580819104</v>
+        <v>1.053153226902845</v>
       </c>
       <c r="L21">
-        <v>1.008903255723078</v>
+        <v>1.026294887103744</v>
       </c>
       <c r="M21">
-        <v>1.037915900160693</v>
+        <v>1.055123127657277</v>
       </c>
       <c r="N21">
-        <v>1.008535697493603</v>
+        <v>1.013515037954236</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9805627008569043</v>
+        <v>1.021157764731544</v>
       </c>
       <c r="D22">
-        <v>1.028665775641163</v>
+        <v>1.049128694509056</v>
       </c>
       <c r="E22">
-        <v>0.9914709518408561</v>
+        <v>1.022187414373168</v>
       </c>
       <c r="F22">
-        <v>1.020326534909871</v>
+        <v>1.050993603688672</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.04671415286648</v>
+        <v>1.040246306474652</v>
       </c>
       <c r="J22">
-        <v>1.012180374249953</v>
+        <v>1.028100540638208</v>
       </c>
       <c r="K22">
-        <v>1.043689972839862</v>
+        <v>1.052787777487921</v>
       </c>
       <c r="L22">
-        <v>1.007213285722364</v>
+        <v>1.025950717814004</v>
       </c>
       <c r="M22">
-        <v>1.035505794813049</v>
+        <v>1.054645691455366</v>
       </c>
       <c r="N22">
-        <v>1.007995456255099</v>
+        <v>1.013409784440112</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9821758953189518</v>
+        <v>1.02145892358492</v>
       </c>
       <c r="D23">
-        <v>1.030045111538863</v>
+        <v>1.049390744356596</v>
       </c>
       <c r="E23">
-        <v>0.9927114067706408</v>
+        <v>1.022440175680241</v>
       </c>
       <c r="F23">
-        <v>1.021942460831044</v>
+        <v>1.051315037370012</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.047324035929422</v>
+        <v>1.040333345625237</v>
       </c>
       <c r="J23">
-        <v>1.013039357013563</v>
+        <v>1.028267903437353</v>
       </c>
       <c r="K23">
-        <v>1.044744383330773</v>
+        <v>1.052981555307096</v>
       </c>
       <c r="L23">
-        <v>1.008112452853597</v>
+        <v>1.026133139776</v>
       </c>
       <c r="M23">
-        <v>1.036788369131461</v>
+        <v>1.054898776087729</v>
       </c>
       <c r="N23">
-        <v>1.008282986754582</v>
+        <v>1.013465584450743</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9883949237511583</v>
+        <v>1.022646027945071</v>
       </c>
       <c r="D24">
-        <v>1.035365242897499</v>
+        <v>1.050422917780707</v>
       </c>
       <c r="E24">
-        <v>0.9975100602319334</v>
+        <v>1.023437452488799</v>
       </c>
       <c r="F24">
-        <v>1.02818084276046</v>
+        <v>1.052582235271318</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.049653480401212</v>
+        <v>1.040673455742237</v>
       </c>
       <c r="J24">
-        <v>1.016347138038831</v>
+        <v>1.028926760207272</v>
       </c>
       <c r="K24">
-        <v>1.048798520272057</v>
+        <v>1.053743407892032</v>
       </c>
       <c r="L24">
-        <v>1.011581043555875</v>
+        <v>1.026851946502422</v>
       </c>
       <c r="M24">
-        <v>1.041730507476149</v>
+        <v>1.055895432324637</v>
       </c>
       <c r="N24">
-        <v>1.009390197082906</v>
+        <v>1.013685191912786</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9953566026897237</v>
+        <v>1.024026579846842</v>
       </c>
       <c r="D25">
-        <v>1.041323912877883</v>
+        <v>1.051621677541154</v>
       </c>
       <c r="E25">
-        <v>1.002913781995153</v>
+        <v>1.024599182011914</v>
       </c>
       <c r="F25">
-        <v>1.035180654799966</v>
+        <v>1.054056284469986</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.052215076471433</v>
+        <v>1.041062810340095</v>
       </c>
       <c r="J25">
-        <v>1.020041252576105</v>
+        <v>1.02969120938791</v>
       </c>
       <c r="K25">
-        <v>1.05331289314925</v>
+        <v>1.054625300084278</v>
       </c>
       <c r="L25">
-        <v>1.015467033023784</v>
+        <v>1.027687333415926</v>
       </c>
       <c r="M25">
-        <v>1.047256324764652</v>
+        <v>1.05705252349645</v>
       </c>
       <c r="N25">
-        <v>1.010626605950197</v>
+        <v>1.013939868724707</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_77/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_1_77/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.025130049555415</v>
+        <v>1.000720114937002</v>
       </c>
       <c r="D2">
-        <v>1.052578524560983</v>
+        <v>1.045915236975661</v>
       </c>
       <c r="E2">
-        <v>1.025529291470578</v>
+        <v>1.007100971824047</v>
       </c>
       <c r="F2">
-        <v>1.055234760281801</v>
+        <v>1.040585312607016</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.04136903293982</v>
+        <v>1.054150182214415</v>
       </c>
       <c r="J2">
-        <v>1.030300792757304</v>
+        <v>1.022879308803643</v>
       </c>
       <c r="K2">
-        <v>1.055326868634535</v>
+        <v>1.056769919362952</v>
       </c>
       <c r="L2">
-        <v>1.028354595625322</v>
+        <v>1.018462257399978</v>
       </c>
       <c r="M2">
-        <v>1.057975777477524</v>
+        <v>1.051506767288256</v>
       </c>
       <c r="N2">
-        <v>1.014142848672106</v>
+        <v>1.011576315924945</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.025932597627786</v>
+        <v>1.004512429083078</v>
       </c>
       <c r="D3">
-        <v>1.05327366321171</v>
+        <v>1.049160953727678</v>
       </c>
       <c r="E3">
-        <v>1.026206640501578</v>
+        <v>1.01007466972128</v>
       </c>
       <c r="F3">
-        <v>1.056092013927693</v>
+        <v>1.044412878052078</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.04158885314406</v>
+        <v>1.055495407570021</v>
       </c>
       <c r="J3">
-        <v>1.030743301946246</v>
+        <v>1.024880832069144</v>
       </c>
       <c r="K3">
-        <v>1.055835183092671</v>
+        <v>1.059201200442695</v>
       </c>
       <c r="L3">
-        <v>1.028839619795867</v>
+        <v>1.020580245954745</v>
       </c>
       <c r="M3">
-        <v>1.058646320258604</v>
+        <v>1.054507356110064</v>
       </c>
       <c r="N3">
-        <v>1.014290135457412</v>
+        <v>1.0122459490709</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.026452506313345</v>
+        <v>1.006921413682856</v>
       </c>
       <c r="D4">
-        <v>1.053723630134669</v>
+        <v>1.051222143882403</v>
       </c>
       <c r="E4">
-        <v>1.02664584849754</v>
+        <v>1.011969479723495</v>
       </c>
       <c r="F4">
-        <v>1.056647431705833</v>
+        <v>1.046846905502832</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04172991804204</v>
+        <v>1.05633903453705</v>
       </c>
       <c r="J4">
-        <v>1.03102958041562</v>
+        <v>1.026149710932993</v>
       </c>
       <c r="K4">
-        <v>1.056163584680788</v>
+        <v>1.060739301494514</v>
       </c>
       <c r="L4">
-        <v>1.029153701349418</v>
+        <v>1.021925558621567</v>
       </c>
       <c r="M4">
-        <v>1.0590802786068</v>
+        <v>1.056410987777772</v>
       </c>
       <c r="N4">
-        <v>1.014385393431295</v>
+        <v>1.012670387104506</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.026671219447121</v>
+        <v>1.007923730780239</v>
       </c>
       <c r="D5">
-        <v>1.053912833993863</v>
+        <v>1.052079570791498</v>
       </c>
       <c r="E5">
-        <v>1.026830709474855</v>
+        <v>1.012759228180125</v>
       </c>
       <c r="F5">
-        <v>1.056881099073213</v>
+        <v>1.047860249692043</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.04178893991622</v>
+        <v>1.056687394522662</v>
       </c>
       <c r="J5">
-        <v>1.031149917614937</v>
+        <v>1.026677024742814</v>
       </c>
       <c r="K5">
-        <v>1.056301520649422</v>
+        <v>1.061377709179967</v>
       </c>
       <c r="L5">
-        <v>1.029285796995087</v>
+        <v>1.022485260340685</v>
       </c>
       <c r="M5">
-        <v>1.059262730279219</v>
+        <v>1.057202423166721</v>
       </c>
       <c r="N5">
-        <v>1.01442542833231</v>
+        <v>1.012846751501475</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.0267079507128</v>
+        <v>1.008091422478635</v>
       </c>
       <c r="D6">
-        <v>1.053944604313257</v>
+        <v>1.052223009875208</v>
       </c>
       <c r="E6">
-        <v>1.026861761173653</v>
+        <v>1.012891435645744</v>
       </c>
       <c r="F6">
-        <v>1.056920342747442</v>
+        <v>1.048029821158362</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.0417988333977</v>
+        <v>1.056745519630376</v>
       </c>
       <c r="J6">
-        <v>1.031170121888378</v>
+        <v>1.026765208505761</v>
       </c>
       <c r="K6">
-        <v>1.056324673386414</v>
+        <v>1.061484424663336</v>
       </c>
       <c r="L6">
-        <v>1.029307979666292</v>
+        <v>1.022578897091055</v>
       </c>
       <c r="M6">
-        <v>1.05929336558121</v>
+        <v>1.057334796222382</v>
       </c>
       <c r="N6">
-        <v>1.014432149678271</v>
+        <v>1.01287624397097</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.026455428207069</v>
+        <v>1.006934847211327</v>
       </c>
       <c r="D7">
-        <v>1.053726158139913</v>
+        <v>1.051233636296996</v>
       </c>
       <c r="E7">
-        <v>1.026648317764903</v>
+        <v>1.011980058954667</v>
       </c>
       <c r="F7">
-        <v>1.05665055331621</v>
+        <v>1.046860484460163</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.041730707803626</v>
+        <v>1.056343713941107</v>
       </c>
       <c r="J7">
-        <v>1.031031188424749</v>
+        <v>1.026156780778105</v>
       </c>
       <c r="K7">
-        <v>1.056165428277329</v>
+        <v>1.060747863938228</v>
       </c>
       <c r="L7">
-        <v>1.029155466200476</v>
+        <v>1.021933060235122</v>
       </c>
       <c r="M7">
-        <v>1.059082716475925</v>
+        <v>1.056421597452371</v>
       </c>
       <c r="N7">
-        <v>1.01438592842554</v>
+        <v>1.012672751758396</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.025401147875437</v>
+        <v>1.002011243481776</v>
       </c>
       <c r="D8">
-        <v>1.05281341445761</v>
+        <v>1.047020366600335</v>
       </c>
       <c r="E8">
-        <v>1.025758013608556</v>
+        <v>1.008112152684193</v>
       </c>
       <c r="F8">
-        <v>1.055524323431224</v>
+        <v>1.041887870160066</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.041443564654985</v>
+        <v>1.054610435984037</v>
       </c>
       <c r="J8">
-        <v>1.030450351382793</v>
+        <v>1.023561264273923</v>
       </c>
       <c r="K8">
-        <v>1.055498760955622</v>
+        <v>1.057598968880751</v>
       </c>
       <c r="L8">
-        <v>1.02851846163445</v>
+        <v>1.019183349583838</v>
       </c>
       <c r="M8">
-        <v>1.058202374531494</v>
+        <v>1.05252883213614</v>
       </c>
       <c r="N8">
-        <v>1.014192634280827</v>
+        <v>1.011804487768177</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.023548088902783</v>
+        <v>0.9929758989858448</v>
       </c>
       <c r="D9">
-        <v>1.051206397229244</v>
+        <v>1.039285989287664</v>
       </c>
       <c r="E9">
-        <v>1.024196293603702</v>
+        <v>1.001061969951442</v>
       </c>
       <c r="F9">
-        <v>1.0535453449062</v>
+        <v>1.032784964284757</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040928633105286</v>
+        <v>1.051345030683835</v>
       </c>
       <c r="J9">
-        <v>1.029426477689088</v>
+        <v>1.018779158157051</v>
       </c>
       <c r="K9">
-        <v>1.054320154864144</v>
+        <v>1.051772286219675</v>
       </c>
       <c r="L9">
-        <v>1.027397863570214</v>
+        <v>1.014137840899609</v>
       </c>
       <c r="M9">
-        <v>1.056651730094896</v>
+        <v>1.045367615552167</v>
       </c>
       <c r="N9">
-        <v>1.013851689042731</v>
+        <v>1.010204209360744</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.022315986717273</v>
+        <v>0.9866879525126023</v>
       </c>
       <c r="D10">
-        <v>1.050136076382554</v>
+        <v>1.033904636498362</v>
       </c>
       <c r="E10">
-        <v>1.023160034829829</v>
+        <v>0.9961903008706782</v>
       </c>
       <c r="F10">
-        <v>1.05222989827848</v>
+        <v>1.026467170242798</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.040579381012677</v>
+        <v>1.049017706524667</v>
       </c>
       <c r="J10">
-        <v>1.028743721886721</v>
+        <v>1.015439872565447</v>
       </c>
       <c r="K10">
-        <v>1.053531917240485</v>
+        <v>1.047687575966161</v>
       </c>
       <c r="L10">
-        <v>1.02665214522112</v>
+        <v>1.010628682992968</v>
       </c>
       <c r="M10">
-        <v>1.055618494211709</v>
+        <v>1.0403744480271</v>
       </c>
       <c r="N10">
-        <v>1.013624192154155</v>
+        <v>1.009086514365039</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.021783269310765</v>
+        <v>0.9838970529784676</v>
       </c>
       <c r="D11">
-        <v>1.049672882496396</v>
+        <v>1.031517103811654</v>
       </c>
       <c r="E11">
-        <v>1.022712505476886</v>
+        <v>0.9940368183961209</v>
       </c>
       <c r="F11">
-        <v>1.051661238930626</v>
+        <v>1.023667575714777</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.040426747278912</v>
+        <v>1.047972267012533</v>
       </c>
       <c r="J11">
-        <v>1.02844805510218</v>
+        <v>1.013955423774837</v>
       </c>
       <c r="K11">
-        <v>1.053190027645584</v>
+        <v>1.045868162509299</v>
       </c>
       <c r="L11">
-        <v>1.026329577203249</v>
+        <v>1.009072074642003</v>
       </c>
       <c r="M11">
-        <v>1.055171238397338</v>
+        <v>1.038156545019372</v>
       </c>
       <c r="N11">
-        <v>1.013525641523467</v>
+        <v>1.008589624926946</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.02158551484574</v>
+        <v>0.9828496509312293</v>
       </c>
       <c r="D12">
-        <v>1.049500872973274</v>
+        <v>1.030621289754602</v>
       </c>
       <c r="E12">
-        <v>1.022546451914051</v>
+        <v>0.9932300064078785</v>
       </c>
       <c r="F12">
-        <v>1.051450156433925</v>
+        <v>1.022617637493384</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.040369842049699</v>
+        <v>1.047578098154633</v>
       </c>
       <c r="J12">
-        <v>1.028338228149476</v>
+        <v>1.013398007315472</v>
       </c>
       <c r="K12">
-        <v>1.053062949384766</v>
+        <v>1.045184443464813</v>
       </c>
       <c r="L12">
-        <v>1.026209812454791</v>
+        <v>1.008488068411434</v>
       </c>
       <c r="M12">
-        <v>1.055005130772822</v>
+        <v>1.03732397948467</v>
       </c>
       <c r="N12">
-        <v>1.013489029415551</v>
+        <v>1.008403039128473</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.021627928370202</v>
+        <v>0.9830748164020326</v>
       </c>
       <c r="D13">
-        <v>1.049537767699537</v>
+        <v>1.030813857173592</v>
       </c>
       <c r="E13">
-        <v>1.022582062847735</v>
+        <v>0.9934033881293327</v>
       </c>
       <c r="F13">
-        <v>1.051495427846809</v>
+        <v>1.022843314613782</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.0403820579156</v>
+        <v>1.04766291631959</v>
       </c>
       <c r="J13">
-        <v>1.028361786526436</v>
+        <v>1.013517851731519</v>
       </c>
       <c r="K13">
-        <v>1.053090211936098</v>
+        <v>1.045331466205195</v>
       </c>
       <c r="L13">
-        <v>1.026235500053306</v>
+        <v>1.008613606697766</v>
       </c>
       <c r="M13">
-        <v>1.055040760348881</v>
+        <v>1.037502968855267</v>
       </c>
       <c r="N13">
-        <v>1.01349688310213</v>
+        <v>1.00844315507723</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.021766920397219</v>
+        <v>0.9838106964099113</v>
       </c>
       <c r="D14">
-        <v>1.049658663281684</v>
+        <v>1.031443240838574</v>
       </c>
       <c r="E14">
-        <v>1.022698775780119</v>
+        <v>0.9939702698741122</v>
       </c>
       <c r="F14">
-        <v>1.051643787858698</v>
+        <v>1.023580995004754</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.040422047759258</v>
+        <v>1.047939805246789</v>
       </c>
       <c r="J14">
-        <v>1.028438976829129</v>
+        <v>1.013909471920803</v>
       </c>
       <c r="K14">
-        <v>1.053179525047037</v>
+        <v>1.04581180913196</v>
       </c>
       <c r="L14">
-        <v>1.026319676355908</v>
+        <v>1.009023920490745</v>
       </c>
       <c r="M14">
-        <v>1.055157507407984</v>
+        <v>1.038087905231559</v>
       </c>
       <c r="N14">
-        <v>1.013522615275376</v>
+        <v>1.008574243338539</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.021852573989493</v>
+        <v>0.9842626582210552</v>
       </c>
       <c r="D15">
-        <v>1.049733156571602</v>
+        <v>1.031829824129046</v>
       </c>
       <c r="E15">
-        <v>1.022770710213274</v>
+        <v>0.9943186191815413</v>
       </c>
       <c r="F15">
-        <v>1.051735216355249</v>
+        <v>1.024034159808817</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.040446658985478</v>
+        <v>1.048109625332515</v>
       </c>
       <c r="J15">
-        <v>1.028486535941892</v>
+        <v>1.01414995613088</v>
       </c>
       <c r="K15">
-        <v>1.053234542552377</v>
+        <v>1.04610670744579</v>
       </c>
       <c r="L15">
-        <v>1.026371547002361</v>
+        <v>1.009275950856829</v>
       </c>
       <c r="M15">
-        <v>1.055229442237222</v>
+        <v>1.03844713521388</v>
       </c>
       <c r="N15">
-        <v>1.013538468932624</v>
+        <v>1.008654741208783</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.022351358223964</v>
+        <v>0.9868716973369088</v>
       </c>
       <c r="D16">
-        <v>1.050166822722466</v>
+        <v>1.034061850269681</v>
       </c>
       <c r="E16">
-        <v>1.0231897608467</v>
+        <v>0.9963322678191707</v>
       </c>
       <c r="F16">
-        <v>1.052267658255958</v>
+        <v>1.026651586088512</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.040589481276967</v>
+        <v>1.049086279366537</v>
       </c>
       <c r="J16">
-        <v>1.028763343809842</v>
+        <v>1.0155375589283</v>
       </c>
       <c r="K16">
-        <v>1.053554595289423</v>
+        <v>1.047807231752838</v>
       </c>
       <c r="L16">
-        <v>1.026673560128567</v>
+        <v>1.010731188074789</v>
       </c>
       <c r="M16">
-        <v>1.055648180250743</v>
+        <v>1.040520437280415</v>
       </c>
       <c r="N16">
-        <v>1.013630731767135</v>
+        <v>1.009119212527991</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.022664445336285</v>
+        <v>0.9884896854688084</v>
       </c>
       <c r="D17">
-        <v>1.050438921578749</v>
+        <v>1.035446334382037</v>
       </c>
       <c r="E17">
-        <v>1.023452936807043</v>
+        <v>0.9975833853608073</v>
       </c>
       <c r="F17">
-        <v>1.052601897476375</v>
+        <v>1.028276007168868</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.040678694303853</v>
+        <v>1.049688691224465</v>
       </c>
       <c r="J17">
-        <v>1.028936971161658</v>
+        <v>1.016397488922793</v>
       </c>
       <c r="K17">
-        <v>1.053755202375723</v>
+        <v>1.048860150636575</v>
       </c>
       <c r="L17">
-        <v>1.026863095079635</v>
+        <v>1.01163391967833</v>
       </c>
       <c r="M17">
-        <v>1.055910882830404</v>
+        <v>1.041805777129093</v>
       </c>
       <c r="N17">
-        <v>1.013688594611117</v>
+        <v>1.009407050497751</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.022847139957333</v>
+        <v>0.9894268873971312</v>
       </c>
       <c r="D18">
-        <v>1.050597657397856</v>
+        <v>1.036248370299977</v>
       </c>
       <c r="E18">
-        <v>1.023606556382985</v>
+        <v>0.9983089150879104</v>
       </c>
       <c r="F18">
-        <v>1.052796943899829</v>
+        <v>1.029217365219958</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.040730595106768</v>
+        <v>1.050036443985926</v>
       </c>
       <c r="J18">
-        <v>1.029038242177308</v>
+        <v>1.016895372189593</v>
       </c>
       <c r="K18">
-        <v>1.053872157272655</v>
+        <v>1.049469428345225</v>
       </c>
       <c r="L18">
-        <v>1.02697367964389</v>
+        <v>1.012156902845589</v>
       </c>
       <c r="M18">
-        <v>1.056064126398235</v>
+        <v>1.042550132143978</v>
       </c>
       <c r="N18">
-        <v>1.013722340852876</v>
+        <v>1.009573700402995</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.022909446977007</v>
+        <v>0.9897453537461183</v>
       </c>
       <c r="D19">
-        <v>1.050651786418795</v>
+        <v>1.036520919751773</v>
       </c>
       <c r="E19">
-        <v>1.023658955882064</v>
+        <v>0.9985555940014503</v>
       </c>
       <c r="F19">
-        <v>1.052863464951643</v>
+        <v>1.029537315515189</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.040748268905149</v>
+        <v>1.050154409404632</v>
       </c>
       <c r="J19">
-        <v>1.029072772450901</v>
+        <v>1.017064517087519</v>
       </c>
       <c r="K19">
-        <v>1.053912026355383</v>
+        <v>1.049676358439963</v>
       </c>
       <c r="L19">
-        <v>1.027011391514838</v>
+        <v>1.012334628858864</v>
       </c>
       <c r="M19">
-        <v>1.056116380748032</v>
+        <v>1.04280303878673</v>
       </c>
       <c r="N19">
-        <v>1.013733846727457</v>
+        <v>1.009630315488951</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.02263084615786</v>
+        <v>0.9883167709288415</v>
       </c>
       <c r="D20">
-        <v>1.050409725330246</v>
+        <v>1.0352983648181</v>
       </c>
       <c r="E20">
-        <v>1.023424688764903</v>
+        <v>0.99744959151281</v>
       </c>
       <c r="F20">
-        <v>1.052566027412232</v>
+        <v>1.028102360252447</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.040669136614683</v>
+        <v>1.049624434258563</v>
       </c>
       <c r="J20">
-        <v>1.028918342879239</v>
+        <v>1.016305610900416</v>
       </c>
       <c r="K20">
-        <v>1.053733684896894</v>
+        <v>1.04874768838695</v>
       </c>
       <c r="L20">
-        <v>1.026842756449931</v>
+        <v>1.011537435516391</v>
       </c>
       <c r="M20">
-        <v>1.055882695910734</v>
+        <v>1.041668429407972</v>
       </c>
       <c r="N20">
-        <v>1.013682386904344</v>
+        <v>1.009376297129885</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.021725987369807</v>
+        <v>0.983594298625159</v>
       </c>
       <c r="D21">
-        <v>1.049623061390129</v>
+        <v>1.031258153859167</v>
       </c>
       <c r="E21">
-        <v>1.022664401780862</v>
+        <v>0.9938035306448046</v>
       </c>
       <c r="F21">
-        <v>1.051600095571869</v>
+        <v>1.023364047416874</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.040410277544425</v>
+        <v>1.04785843126435</v>
       </c>
       <c r="J21">
-        <v>1.028416246285949</v>
+        <v>1.013794317879265</v>
       </c>
       <c r="K21">
-        <v>1.053153226902845</v>
+        <v>1.045670580819104</v>
       </c>
       <c r="L21">
-        <v>1.026294887103744</v>
+        <v>1.008903255723077</v>
       </c>
       <c r="M21">
-        <v>1.055123127657277</v>
+        <v>1.037915900160692</v>
       </c>
       <c r="N21">
-        <v>1.013515037954236</v>
+        <v>1.008535697493603</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021157764731544</v>
+        <v>0.980562700856904</v>
       </c>
       <c r="D22">
-        <v>1.049128694509056</v>
+        <v>1.028665775641163</v>
       </c>
       <c r="E22">
-        <v>1.022187414373168</v>
+        <v>0.9914709518408558</v>
       </c>
       <c r="F22">
-        <v>1.050993603688672</v>
+        <v>1.02032653490987</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.040246306474652</v>
+        <v>1.04671415286648</v>
       </c>
       <c r="J22">
-        <v>1.028100540638208</v>
+        <v>1.012180374249953</v>
       </c>
       <c r="K22">
-        <v>1.052787777487921</v>
+        <v>1.043689972839862</v>
       </c>
       <c r="L22">
-        <v>1.025950717814004</v>
+        <v>1.007213285722363</v>
       </c>
       <c r="M22">
-        <v>1.054645691455366</v>
+        <v>1.035505794813049</v>
       </c>
       <c r="N22">
-        <v>1.013409784440112</v>
+        <v>1.007995456255099</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02145892358492</v>
+        <v>0.982175895318951</v>
       </c>
       <c r="D23">
-        <v>1.049390744356596</v>
+        <v>1.030045111538862</v>
       </c>
       <c r="E23">
-        <v>1.022440175680241</v>
+        <v>0.9927114067706398</v>
       </c>
       <c r="F23">
-        <v>1.051315037370012</v>
+        <v>1.021942460831043</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.040333345625237</v>
+        <v>1.047324035929421</v>
       </c>
       <c r="J23">
-        <v>1.028267903437353</v>
+        <v>1.013039357013562</v>
       </c>
       <c r="K23">
-        <v>1.052981555307096</v>
+        <v>1.044744383330772</v>
       </c>
       <c r="L23">
-        <v>1.026133139776</v>
+        <v>1.008112452853596</v>
       </c>
       <c r="M23">
-        <v>1.054898776087729</v>
+        <v>1.03678836913146</v>
       </c>
       <c r="N23">
-        <v>1.013465584450743</v>
+        <v>1.008282986754582</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.022646027945071</v>
+        <v>0.988394923751158</v>
       </c>
       <c r="D24">
-        <v>1.050422917780707</v>
+        <v>1.035365242897499</v>
       </c>
       <c r="E24">
-        <v>1.023437452488799</v>
+        <v>0.997510060231933</v>
       </c>
       <c r="F24">
-        <v>1.052582235271318</v>
+        <v>1.028180842760459</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.040673455742237</v>
+        <v>1.049653480401211</v>
       </c>
       <c r="J24">
-        <v>1.028926760207272</v>
+        <v>1.01634713803883</v>
       </c>
       <c r="K24">
-        <v>1.053743407892032</v>
+        <v>1.048798520272056</v>
       </c>
       <c r="L24">
-        <v>1.026851946502422</v>
+        <v>1.011581043555874</v>
       </c>
       <c r="M24">
-        <v>1.055895432324637</v>
+        <v>1.041730507476149</v>
       </c>
       <c r="N24">
-        <v>1.013685191912786</v>
+        <v>1.009390197082906</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.024026579846842</v>
+        <v>0.9953566026897229</v>
       </c>
       <c r="D25">
-        <v>1.051621677541154</v>
+        <v>1.041323912877882</v>
       </c>
       <c r="E25">
-        <v>1.024599182011914</v>
+        <v>1.002913781995152</v>
       </c>
       <c r="F25">
-        <v>1.054056284469986</v>
+        <v>1.035180654799966</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041062810340095</v>
+        <v>1.052215076471432</v>
       </c>
       <c r="J25">
-        <v>1.02969120938791</v>
+        <v>1.020041252576105</v>
       </c>
       <c r="K25">
-        <v>1.054625300084278</v>
+        <v>1.053312893149249</v>
       </c>
       <c r="L25">
-        <v>1.027687333415926</v>
+        <v>1.015467033023784</v>
       </c>
       <c r="M25">
-        <v>1.05705252349645</v>
+        <v>1.047256324764651</v>
       </c>
       <c r="N25">
-        <v>1.013939868724707</v>
+        <v>1.010626605950197</v>
       </c>
     </row>
   </sheetData>
